--- a/medicine/Psychotrope/Doburoku/Doburoku.xlsx
+++ b/medicine/Psychotrope/Doburoku/Doburoku.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le doburoku ou dakushu (濁酒?), prononciation japonaise du chinois zhuojiu (浊酒 / 濁酒, zhuójiǔ, « vin trouble »), également écrit nigorizake (濁り酒?, abrégé en nigori) en japonais et également appelé en chinois zhuolao (浊醪 / 濁醪, zhuóláo) ou laoli  (醪醴, láolǐ) est une variété régionale de vin de riz consommé en Extrême-Orient. La plus ancienne trace semble être en Chine, le choujiu consommé sous la dynastie Tang à Chang'an (aujourd'hui Xi'an), sa capitale, et décrit par le poète Li Bai sous le terme láolǐ (醪醴) ou yùjiāng (玉浆 / 玉漿). En Corée, cette boisson est appelée makgeolli (막걸리), takju (탁주 濁酒 ; lit. « vin opaque »), nongju (농주, 滓酒 ; lit. « vin fermier »), hoeju (회주, 灰酒 ; lit. « vin poussière ou chaux »).
